--- a/code/experiment/dataset_similarity/data/teste.xlsx
+++ b/code/experiment/dataset_similarity/data/teste.xlsx
@@ -439,64 +439,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.920543313026428</v>
+        <v>2.336547613143921</v>
       </c>
       <c r="C2">
-        <v>17.20125007629395</v>
+        <v>13.64944744110107</v>
       </c>
       <c r="D2">
-        <v>11.58061599731445</v>
+        <v>10.12326908111572</v>
       </c>
       <c r="E2">
-        <v>10.07876396179199</v>
+        <v>9.365433692932129</v>
       </c>
       <c r="F2">
-        <v>11.33219337463379</v>
+        <v>10.66031169891357</v>
       </c>
       <c r="G2">
-        <v>9.336299896240234</v>
+        <v>8.096811294555664</v>
       </c>
       <c r="H2">
-        <v>8.879556655883789</v>
+        <v>8.555709838867188</v>
       </c>
       <c r="I2">
-        <v>12.4738302230835</v>
+        <v>11.56233406066895</v>
       </c>
       <c r="J2">
-        <v>9.774651527404785</v>
+        <v>9.268943786621094</v>
       </c>
       <c r="K2">
-        <v>10.6222448348999</v>
+        <v>10.37362003326416</v>
       </c>
       <c r="L2">
-        <v>19.06765174865723</v>
+        <v>20.11332321166992</v>
       </c>
       <c r="M2">
-        <v>15.24245834350586</v>
+        <v>17.34599494934082</v>
       </c>
       <c r="N2">
-        <v>21.60326194763184</v>
+        <v>19.62322998046875</v>
       </c>
       <c r="O2">
-        <v>14.92036437988281</v>
+        <v>17.01545524597168</v>
       </c>
       <c r="P2">
-        <v>19.91143608093262</v>
+        <v>18.36225700378418</v>
       </c>
       <c r="Q2">
-        <v>15.08604431152344</v>
+        <v>12.5622034072876</v>
       </c>
       <c r="R2">
-        <v>19.14863395690918</v>
+        <v>19.30990219116211</v>
       </c>
       <c r="S2">
-        <v>18.97051620483398</v>
+        <v>14.93456077575684</v>
       </c>
       <c r="T2">
-        <v>22.42490005493164</v>
+        <v>19.86452865600586</v>
       </c>
       <c r="U2">
-        <v>20.2961597442627</v>
+        <v>18.07280158996582</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -504,64 +504,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.55290031433105</v>
+        <v>14.29642105102539</v>
       </c>
       <c r="C3">
-        <v>0.7984684109687805</v>
+        <v>0.7859194874763489</v>
       </c>
       <c r="D3">
-        <v>12.41884231567383</v>
+        <v>10.27321529388428</v>
       </c>
       <c r="E3">
-        <v>10.81521224975586</v>
+        <v>9.89112377166748</v>
       </c>
       <c r="F3">
-        <v>12.00217819213867</v>
+        <v>10.11302471160889</v>
       </c>
       <c r="G3">
-        <v>11.77472877502441</v>
+        <v>9.891803741455078</v>
       </c>
       <c r="H3">
-        <v>11.16462516784668</v>
+        <v>9.731746673583984</v>
       </c>
       <c r="I3">
-        <v>11.71778106689453</v>
+        <v>9.389983177185059</v>
       </c>
       <c r="J3">
-        <v>8.931488990783691</v>
+        <v>7.592452526092529</v>
       </c>
       <c r="K3">
-        <v>10.00144577026367</v>
+        <v>8.629242897033691</v>
       </c>
       <c r="L3">
-        <v>25.58393096923828</v>
+        <v>20.86043357849121</v>
       </c>
       <c r="M3">
-        <v>15.05509757995605</v>
+        <v>14.64461803436279</v>
       </c>
       <c r="N3">
-        <v>31.91225242614746</v>
+        <v>22.42617988586426</v>
       </c>
       <c r="O3">
-        <v>14.21933078765869</v>
+        <v>15.1562328338623</v>
       </c>
       <c r="P3">
-        <v>30.49493408203125</v>
+        <v>22.73140335083008</v>
       </c>
       <c r="Q3">
-        <v>18.6993408203125</v>
+        <v>12.71327877044678</v>
       </c>
       <c r="R3">
-        <v>28.24996185302734</v>
+        <v>21.73834991455078</v>
       </c>
       <c r="S3">
-        <v>19.58385848999023</v>
+        <v>13.35111141204834</v>
       </c>
       <c r="T3">
-        <v>35.29607391357422</v>
+        <v>23.61389541625977</v>
       </c>
       <c r="U3">
-        <v>26.47038078308105</v>
+        <v>18.32161140441895</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -569,64 +569,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.51674842834473</v>
+        <v>10.5029821395874</v>
       </c>
       <c r="C4">
-        <v>12.25926685333252</v>
+        <v>11.22893905639648</v>
       </c>
       <c r="D4">
-        <v>3.374303340911865</v>
+        <v>3.815461158752441</v>
       </c>
       <c r="E4">
-        <v>9.3663330078125</v>
+        <v>8.225736618041992</v>
       </c>
       <c r="F4">
-        <v>11.5504093170166</v>
+        <v>10.7297477722168</v>
       </c>
       <c r="G4">
-        <v>11.54604339599609</v>
+        <v>10.4803991317749</v>
       </c>
       <c r="H4">
-        <v>10.17392539978027</v>
+        <v>9.779529571533203</v>
       </c>
       <c r="I4">
-        <v>13.19475841522217</v>
+        <v>11.93268585205078</v>
       </c>
       <c r="J4">
-        <v>8.720490455627441</v>
+        <v>8.671963691711426</v>
       </c>
       <c r="K4">
-        <v>11.52731418609619</v>
+        <v>10.93287563323975</v>
       </c>
       <c r="L4">
-        <v>21.34626770019531</v>
+        <v>21.37850952148438</v>
       </c>
       <c r="M4">
-        <v>17.30095863342285</v>
+        <v>17.94173622131348</v>
       </c>
       <c r="N4">
-        <v>23.27501678466797</v>
+        <v>21.34708786010742</v>
       </c>
       <c r="O4">
-        <v>16.05224227905273</v>
+        <v>18.25536918640137</v>
       </c>
       <c r="P4">
-        <v>22.29503059387207</v>
+        <v>20.74480056762695</v>
       </c>
       <c r="Q4">
-        <v>16.35039329528809</v>
+        <v>13.94647312164307</v>
       </c>
       <c r="R4">
-        <v>21.72915649414062</v>
+        <v>21.53956985473633</v>
       </c>
       <c r="S4">
-        <v>20.87783432006836</v>
+        <v>16.29983139038086</v>
       </c>
       <c r="T4">
-        <v>26.5030689239502</v>
+        <v>21.70755386352539</v>
       </c>
       <c r="U4">
-        <v>22.97183036804199</v>
+        <v>17.80024909973145</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -634,64 +634,64 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.12481594085693</v>
+        <v>9.27401065826416</v>
       </c>
       <c r="C5">
-        <v>10.78403282165527</v>
+        <v>9.728351593017578</v>
       </c>
       <c r="D5">
-        <v>9.454622268676758</v>
+        <v>8.006418228149414</v>
       </c>
       <c r="E5">
-        <v>2.572301864624023</v>
+        <v>2.899756908416748</v>
       </c>
       <c r="F5">
-        <v>10.25820350646973</v>
+        <v>9.689752578735352</v>
       </c>
       <c r="G5">
-        <v>6.245138645172119</v>
+        <v>6.458153247833252</v>
       </c>
       <c r="H5">
-        <v>10.67513561248779</v>
+        <v>9.605751037597656</v>
       </c>
       <c r="I5">
-        <v>9.975358963012695</v>
+        <v>9.91567325592041</v>
       </c>
       <c r="J5">
-        <v>6.553248405456543</v>
+        <v>6.599021911621094</v>
       </c>
       <c r="K5">
-        <v>8.281424522399902</v>
+        <v>8.879792213439941</v>
       </c>
       <c r="L5">
-        <v>18.18749809265137</v>
+        <v>18.28191375732422</v>
       </c>
       <c r="M5">
-        <v>14.11108875274658</v>
+        <v>13.80556583404541</v>
       </c>
       <c r="N5">
-        <v>21.8460521697998</v>
+        <v>18.98725891113281</v>
       </c>
       <c r="O5">
-        <v>12.50221347808838</v>
+        <v>14.09810638427734</v>
       </c>
       <c r="P5">
-        <v>20.78476715087891</v>
+        <v>18.36602401733398</v>
       </c>
       <c r="Q5">
-        <v>17.12435531616211</v>
+        <v>13.68918228149414</v>
       </c>
       <c r="R5">
-        <v>19.32926750183105</v>
+        <v>18.79789352416992</v>
       </c>
       <c r="S5">
-        <v>20.60259437561035</v>
+        <v>15.6071949005127</v>
       </c>
       <c r="T5">
-        <v>24.54965972900391</v>
+        <v>20.05998992919922</v>
       </c>
       <c r="U5">
-        <v>22.0337085723877</v>
+        <v>18.11346054077148</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -699,64 +699,64 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.7017297744751</v>
+        <v>10.74090385437012</v>
       </c>
       <c r="C6">
-        <v>11.8322696685791</v>
+        <v>9.758565902709961</v>
       </c>
       <c r="D6">
-        <v>11.60368537902832</v>
+        <v>10.01089286804199</v>
       </c>
       <c r="E6">
-        <v>10.3652400970459</v>
+        <v>9.582503318786621</v>
       </c>
       <c r="F6">
-        <v>2.459503650665283</v>
+        <v>2.670472860336304</v>
       </c>
       <c r="G6">
-        <v>9.613048553466797</v>
+        <v>8.350912094116211</v>
       </c>
       <c r="H6">
-        <v>9.423178672790527</v>
+        <v>8.625466346740723</v>
       </c>
       <c r="I6">
-        <v>8.48692512512207</v>
+        <v>8.028717994689941</v>
       </c>
       <c r="J6">
-        <v>7.883894920349121</v>
+        <v>7.658924102783203</v>
       </c>
       <c r="K6">
-        <v>4.380168437957764</v>
+        <v>4.338486671447754</v>
       </c>
       <c r="L6">
-        <v>17.9499454498291</v>
+        <v>19.69278526306152</v>
       </c>
       <c r="M6">
-        <v>13.92826652526855</v>
+        <v>13.95447158813477</v>
       </c>
       <c r="N6">
-        <v>24.49449157714844</v>
+        <v>20.50760459899902</v>
       </c>
       <c r="O6">
-        <v>13.19285678863525</v>
+        <v>15.10084056854248</v>
       </c>
       <c r="P6">
-        <v>23.18651008605957</v>
+        <v>19.95898246765137</v>
       </c>
       <c r="Q6">
-        <v>15.15715599060059</v>
+        <v>11.51655673980713</v>
       </c>
       <c r="R6">
-        <v>20.47287940979004</v>
+        <v>19.7458381652832</v>
       </c>
       <c r="S6">
-        <v>15.31854629516602</v>
+        <v>12.04375171661377</v>
       </c>
       <c r="T6">
-        <v>24.20084571838379</v>
+        <v>20.59622573852539</v>
       </c>
       <c r="U6">
-        <v>23.38618087768555</v>
+        <v>18.81634140014648</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -764,64 +764,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.425839424133301</v>
+        <v>8.215083122253418</v>
       </c>
       <c r="C7">
-        <v>11.6599702835083</v>
+        <v>10.14477157592773</v>
       </c>
       <c r="D7">
-        <v>11.69075202941895</v>
+        <v>9.912221908569336</v>
       </c>
       <c r="E7">
-        <v>6.168108940124512</v>
+        <v>6.48832368850708</v>
       </c>
       <c r="F7">
-        <v>9.273190498352051</v>
+        <v>8.679368019104004</v>
       </c>
       <c r="G7">
-        <v>2.566905975341797</v>
+        <v>2.838535785675049</v>
       </c>
       <c r="H7">
-        <v>9.662875175476074</v>
+        <v>8.486595153808594</v>
       </c>
       <c r="I7">
-        <v>9.923848152160645</v>
+        <v>9.593286514282227</v>
       </c>
       <c r="J7">
-        <v>6.454310894012451</v>
+        <v>6.143153190612793</v>
       </c>
       <c r="K7">
-        <v>7.987894535064697</v>
+        <v>7.946469306945801</v>
       </c>
       <c r="L7">
-        <v>19.50055122375488</v>
+        <v>19.47769927978516</v>
       </c>
       <c r="M7">
-        <v>16.5277156829834</v>
+        <v>15.58656215667725</v>
       </c>
       <c r="N7">
-        <v>25.09547805786133</v>
+        <v>20.70282173156738</v>
       </c>
       <c r="O7">
-        <v>14.91609477996826</v>
+        <v>16.03499603271484</v>
       </c>
       <c r="P7">
-        <v>24.44726753234863</v>
+        <v>20.24566841125488</v>
       </c>
       <c r="Q7">
-        <v>15.8540620803833</v>
+        <v>11.69140338897705</v>
       </c>
       <c r="R7">
-        <v>21.88808441162109</v>
+        <v>20.16903114318848</v>
       </c>
       <c r="S7">
-        <v>20.20216369628906</v>
+        <v>14.25789451599121</v>
       </c>
       <c r="T7">
-        <v>25.48897552490234</v>
+        <v>20.05394172668457</v>
       </c>
       <c r="U7">
-        <v>21.81455230712891</v>
+        <v>17.19286346435547</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -829,64 +829,64 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.026713371276855</v>
+        <v>9.160643577575684</v>
       </c>
       <c r="C8">
-        <v>11.87028217315674</v>
+        <v>9.001350402832031</v>
       </c>
       <c r="D8">
-        <v>10.42435455322266</v>
+        <v>9.413236618041992</v>
       </c>
       <c r="E8">
-        <v>11.4025354385376</v>
+        <v>9.621917724609375</v>
       </c>
       <c r="F8">
-        <v>9.72133731842041</v>
+        <v>8.612136840820312</v>
       </c>
       <c r="G8">
-        <v>10.38965225219727</v>
+        <v>8.134069442749023</v>
       </c>
       <c r="H8">
-        <v>1.860748291015625</v>
+        <v>2.212283849716187</v>
       </c>
       <c r="I8">
-        <v>14.85444641113281</v>
+        <v>11.7943696975708</v>
       </c>
       <c r="J8">
-        <v>8.911354064941406</v>
+        <v>7.633749961853027</v>
       </c>
       <c r="K8">
-        <v>9.296833992004395</v>
+        <v>8.50175952911377</v>
       </c>
       <c r="L8">
-        <v>22.12561798095703</v>
+        <v>20.48943328857422</v>
       </c>
       <c r="M8">
-        <v>15.18623065948486</v>
+        <v>14.41907691955566</v>
       </c>
       <c r="N8">
-        <v>26.42081451416016</v>
+        <v>21.68799018859863</v>
       </c>
       <c r="O8">
-        <v>14.32181549072266</v>
+        <v>15.40600681304932</v>
       </c>
       <c r="P8">
-        <v>24.80962371826172</v>
+        <v>21.27304267883301</v>
       </c>
       <c r="Q8">
-        <v>15.46629524230957</v>
+        <v>12.25695514678955</v>
       </c>
       <c r="R8">
-        <v>23.30838203430176</v>
+        <v>21.42353248596191</v>
       </c>
       <c r="S8">
-        <v>15.67940521240234</v>
+        <v>12.86499309539795</v>
       </c>
       <c r="T8">
-        <v>27.133056640625</v>
+        <v>21.86420822143555</v>
       </c>
       <c r="U8">
-        <v>23.58898735046387</v>
+        <v>18.80953979492188</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -894,64 +894,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.42487716674805</v>
+        <v>12.06117630004883</v>
       </c>
       <c r="C9">
-        <v>11.60303497314453</v>
+        <v>9.207642555236816</v>
       </c>
       <c r="D9">
-        <v>13.68453788757324</v>
+        <v>11.44069290161133</v>
       </c>
       <c r="E9">
-        <v>10.43462753295898</v>
+        <v>9.886874198913574</v>
       </c>
       <c r="F9">
-        <v>8.80146598815918</v>
+        <v>8.057452201843262</v>
       </c>
       <c r="G9">
-        <v>10.13275337219238</v>
+        <v>9.937253952026367</v>
       </c>
       <c r="H9">
-        <v>15.49554061889648</v>
+        <v>12.19632625579834</v>
       </c>
       <c r="I9">
-        <v>2.163178443908691</v>
+        <v>2.132399559020996</v>
       </c>
       <c r="J9">
-        <v>9.32829761505127</v>
+        <v>8.12180233001709</v>
       </c>
       <c r="K9">
-        <v>6.962023735046387</v>
+        <v>5.846623420715332</v>
       </c>
       <c r="L9">
-        <v>21.70859909057617</v>
+        <v>20.6665096282959</v>
       </c>
       <c r="M9">
-        <v>18.23764610290527</v>
+        <v>15.96156215667725</v>
       </c>
       <c r="N9">
-        <v>28.31315612792969</v>
+        <v>22.5684814453125</v>
       </c>
       <c r="O9">
-        <v>17.52961349487305</v>
+        <v>16.84504890441895</v>
       </c>
       <c r="P9">
-        <v>27.9183235168457</v>
+        <v>22.77750587463379</v>
       </c>
       <c r="Q9">
-        <v>18.4405403137207</v>
+        <v>14.23154163360596</v>
       </c>
       <c r="R9">
-        <v>25.15031433105469</v>
+        <v>21.65088081359863</v>
       </c>
       <c r="S9">
-        <v>22.00948333740234</v>
+        <v>16.47991561889648</v>
       </c>
       <c r="T9">
-        <v>29.76888656616211</v>
+        <v>22.967529296875</v>
       </c>
       <c r="U9">
-        <v>27.56312561035156</v>
+        <v>22.02096176147461</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -959,64 +959,64 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.37640953063965</v>
+        <v>9.771153450012207</v>
       </c>
       <c r="C10">
-        <v>9.032355308532715</v>
+        <v>8.080004692077637</v>
       </c>
       <c r="D10">
-        <v>9.222657203674316</v>
+        <v>8.188408851623535</v>
       </c>
       <c r="E10">
-        <v>6.906372547149658</v>
+        <v>6.872292995452881</v>
       </c>
       <c r="F10">
-        <v>7.761372566223145</v>
+        <v>7.72067928314209</v>
       </c>
       <c r="G10">
-        <v>6.513185501098633</v>
+        <v>6.163373470306396</v>
       </c>
       <c r="H10">
-        <v>9.089862823486328</v>
+        <v>8.246721267700195</v>
       </c>
       <c r="I10">
-        <v>9.046290397644043</v>
+        <v>8.282583236694336</v>
       </c>
       <c r="J10">
-        <v>2.285679578781128</v>
+        <v>2.629605770111084</v>
       </c>
       <c r="K10">
-        <v>6.493420124053955</v>
+        <v>6.511173248291016</v>
       </c>
       <c r="L10">
-        <v>14.29595375061035</v>
+        <v>16.90248680114746</v>
       </c>
       <c r="M10">
-        <v>10.99325561523438</v>
+        <v>12.41220474243164</v>
       </c>
       <c r="N10">
-        <v>21.13273811340332</v>
+        <v>19.60836982727051</v>
       </c>
       <c r="O10">
-        <v>10.09071159362793</v>
+        <v>13.15061664581299</v>
       </c>
       <c r="P10">
-        <v>19.81167411804199</v>
+        <v>19.11455154418945</v>
       </c>
       <c r="Q10">
-        <v>17.13032913208008</v>
+        <v>13.06078910827637</v>
       </c>
       <c r="R10">
-        <v>17.63514137268066</v>
+        <v>18.8099193572998</v>
       </c>
       <c r="S10">
-        <v>20.56534194946289</v>
+        <v>15.51811599731445</v>
       </c>
       <c r="T10">
-        <v>24.48559379577637</v>
+        <v>19.84749031066895</v>
       </c>
       <c r="U10">
-        <v>20.89212036132812</v>
+        <v>17.36590576171875</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1024,64 +1024,64 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.90251159667969</v>
+        <v>10.60480117797852</v>
       </c>
       <c r="C11">
-        <v>10.65296745300293</v>
+        <v>8.920932769775391</v>
       </c>
       <c r="D11">
-        <v>11.88142871856689</v>
+        <v>10.23073196411133</v>
       </c>
       <c r="E11">
-        <v>8.399994850158691</v>
+        <v>8.833873748779297</v>
       </c>
       <c r="F11">
-        <v>4.612336158752441</v>
+        <v>4.262434005737305</v>
       </c>
       <c r="G11">
-        <v>8.360452651977539</v>
+        <v>8.091442108154297</v>
       </c>
       <c r="H11">
-        <v>9.576254844665527</v>
+        <v>8.833763122558594</v>
       </c>
       <c r="I11">
-        <v>5.79067850112915</v>
+        <v>6.04883861541748</v>
       </c>
       <c r="J11">
-        <v>6.856404781341553</v>
+        <v>6.52556324005127</v>
       </c>
       <c r="K11">
-        <v>1.832044005393982</v>
+        <v>1.949339389801025</v>
       </c>
       <c r="L11">
-        <v>20.02861404418945</v>
+        <v>19.28548240661621</v>
       </c>
       <c r="M11">
-        <v>14.12270259857178</v>
+        <v>12.4408130645752</v>
       </c>
       <c r="N11">
-        <v>26.49946975708008</v>
+        <v>20.77149963378906</v>
       </c>
       <c r="O11">
-        <v>13.99751949310303</v>
+        <v>14.2076301574707</v>
       </c>
       <c r="P11">
-        <v>25.3176383972168</v>
+        <v>19.91063690185547</v>
       </c>
       <c r="Q11">
-        <v>17.13859939575195</v>
+        <v>12.57750511169434</v>
       </c>
       <c r="R11">
-        <v>22.64012718200684</v>
+        <v>19.89189529418945</v>
       </c>
       <c r="S11">
-        <v>18.24760437011719</v>
+        <v>13.58980178833008</v>
       </c>
       <c r="T11">
-        <v>28.14847183227539</v>
+        <v>20.96441459655762</v>
       </c>
       <c r="U11">
-        <v>26.59148406982422</v>
+        <v>20.0519962310791</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1089,64 +1089,64 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.34749984741211</v>
+        <v>21.33990478515625</v>
       </c>
       <c r="C12">
-        <v>25.80106925964355</v>
+        <v>22.00384902954102</v>
       </c>
       <c r="D12">
-        <v>22.09228706359863</v>
+        <v>21.80034255981445</v>
       </c>
       <c r="E12">
-        <v>18.59099769592285</v>
+        <v>19.53282928466797</v>
       </c>
       <c r="F12">
-        <v>18.87554931640625</v>
+        <v>20.5733642578125</v>
       </c>
       <c r="G12">
-        <v>20.12869453430176</v>
+        <v>20.32431411743164</v>
       </c>
       <c r="H12">
-        <v>22.15355491638184</v>
+        <v>21.33062744140625</v>
       </c>
       <c r="I12">
-        <v>21.30972862243652</v>
+        <v>21.5714111328125</v>
       </c>
       <c r="J12">
-        <v>14.898606300354</v>
+        <v>18.01275253295898</v>
       </c>
       <c r="K12">
-        <v>19.78655433654785</v>
+        <v>20.09350395202637</v>
       </c>
       <c r="L12">
-        <v>1.152711868286133</v>
+        <v>1.333577156066895</v>
       </c>
       <c r="M12">
-        <v>8.522865295410156</v>
+        <v>7.579848289489746</v>
       </c>
       <c r="N12">
-        <v>6.54473876953125</v>
+        <v>5.351109981536865</v>
       </c>
       <c r="O12">
-        <v>6.357865810394287</v>
+        <v>4.997971534729004</v>
       </c>
       <c r="P12">
-        <v>6.549206256866455</v>
+        <v>5.542386531829834</v>
       </c>
       <c r="Q12">
-        <v>23.43753242492676</v>
+        <v>16.09262466430664</v>
       </c>
       <c r="R12">
-        <v>3.985184669494629</v>
+        <v>3.704239845275879</v>
       </c>
       <c r="S12">
-        <v>27.47473907470703</v>
+        <v>18.93311309814453</v>
       </c>
       <c r="T12">
-        <v>13.32471942901611</v>
+        <v>8.876686096191406</v>
       </c>
       <c r="U12">
-        <v>21.85359191894531</v>
+        <v>16.06734085083008</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1154,64 +1154,64 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.62133884429932</v>
+        <v>17.95132255554199</v>
       </c>
       <c r="C13">
-        <v>15.48042488098145</v>
+        <v>15.1031379699707</v>
       </c>
       <c r="D13">
-        <v>18.08430099487305</v>
+        <v>17.27500534057617</v>
       </c>
       <c r="E13">
-        <v>14.27108001708984</v>
+        <v>14.35321617126465</v>
       </c>
       <c r="F13">
-        <v>15.4878101348877</v>
+        <v>14.02832412719727</v>
       </c>
       <c r="G13">
-        <v>17.06735038757324</v>
+        <v>15.62721252441406</v>
       </c>
       <c r="H13">
-        <v>15.19673156738281</v>
+        <v>15.02853202819824</v>
       </c>
       <c r="I13">
-        <v>17.54512405395508</v>
+        <v>16.48137474060059</v>
       </c>
       <c r="J13">
-        <v>11.22334861755371</v>
+        <v>12.58601379394531</v>
       </c>
       <c r="K13">
-        <v>13.69141578674316</v>
+        <v>12.55297470092773</v>
       </c>
       <c r="L13">
-        <v>8.404659271240234</v>
+        <v>7.086821556091309</v>
       </c>
       <c r="M13">
-        <v>0.716624915599823</v>
+        <v>0.7332037687301636</v>
       </c>
       <c r="N13">
-        <v>15.33956813812256</v>
+        <v>10.68392944335938</v>
       </c>
       <c r="O13">
-        <v>3.620055675506592</v>
+        <v>3.558363199234009</v>
       </c>
       <c r="P13">
-        <v>13.05737113952637</v>
+        <v>9.875511169433594</v>
       </c>
       <c r="Q13">
-        <v>21.17318344116211</v>
+        <v>15.84261608123779</v>
       </c>
       <c r="R13">
-        <v>11.18697357177734</v>
+        <v>9.123150825500488</v>
       </c>
       <c r="S13">
-        <v>23.45558929443359</v>
+        <v>17.36459159851074</v>
       </c>
       <c r="T13">
-        <v>20.82952690124512</v>
+        <v>14.85557174682617</v>
       </c>
       <c r="U13">
-        <v>23.07082557678223</v>
+        <v>19.65704345703125</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1219,64 +1219,64 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.89504051208496</v>
+        <v>21.07988548278809</v>
       </c>
       <c r="C14">
-        <v>31.64494514465332</v>
+        <v>24.24419784545898</v>
       </c>
       <c r="D14">
-        <v>23.8386344909668</v>
+        <v>22.43036270141602</v>
       </c>
       <c r="E14">
-        <v>22.41453170776367</v>
+        <v>20.48244285583496</v>
       </c>
       <c r="F14">
-        <v>25.18111991882324</v>
+        <v>21.92026519775391</v>
       </c>
       <c r="G14">
-        <v>25.59971618652344</v>
+        <v>22.08315658569336</v>
       </c>
       <c r="H14">
-        <v>26.64428520202637</v>
+        <v>22.75064086914062</v>
       </c>
       <c r="I14">
-        <v>28.15655899047852</v>
+        <v>24.0068531036377</v>
       </c>
       <c r="J14">
-        <v>21.52727127075195</v>
+        <v>21.05352401733398</v>
       </c>
       <c r="K14">
-        <v>26.69986534118652</v>
+        <v>22.27648735046387</v>
       </c>
       <c r="L14">
-        <v>6.634112358093262</v>
+        <v>5.704664707183838</v>
       </c>
       <c r="M14">
-        <v>15.13074111938477</v>
+        <v>11.57471466064453</v>
       </c>
       <c r="N14">
-        <v>1.397687315940857</v>
+        <v>1.124455690383911</v>
       </c>
       <c r="O14">
-        <v>11.63754653930664</v>
+        <v>8.39017391204834</v>
       </c>
       <c r="P14">
-        <v>2.717584133148193</v>
+        <v>2.400977373123169</v>
       </c>
       <c r="Q14">
-        <v>22.82112884521484</v>
+        <v>15.42720413208008</v>
       </c>
       <c r="R14">
-        <v>3.112841844558716</v>
+        <v>2.520423412322998</v>
       </c>
       <c r="S14">
-        <v>25.51138305664062</v>
+        <v>17.5296802520752</v>
       </c>
       <c r="T14">
-        <v>9.604719161987305</v>
+        <v>6.451161861419678</v>
       </c>
       <c r="U14">
-        <v>18.92319107055664</v>
+        <v>14.35098648071289</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1284,64 +1284,64 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.4754638671875</v>
+        <v>18.07022857666016</v>
       </c>
       <c r="C15">
-        <v>15.1406717300415</v>
+        <v>15.47769355773926</v>
       </c>
       <c r="D15">
-        <v>17.0890941619873</v>
+        <v>17.78599548339844</v>
       </c>
       <c r="E15">
-        <v>13.23543167114258</v>
+        <v>14.95601940155029</v>
       </c>
       <c r="F15">
-        <v>15.00032615661621</v>
+        <v>15.45638465881348</v>
       </c>
       <c r="G15">
-        <v>16.08015823364258</v>
+        <v>16.15293502807617</v>
       </c>
       <c r="H15">
-        <v>14.5873908996582</v>
+        <v>16.08383369445801</v>
       </c>
       <c r="I15">
-        <v>17.4528751373291</v>
+        <v>17.30059814453125</v>
       </c>
       <c r="J15">
-        <v>10.60036468505859</v>
+        <v>13.24352931976318</v>
       </c>
       <c r="K15">
-        <v>14.06500244140625</v>
+        <v>14.36207580566406</v>
       </c>
       <c r="L15">
-        <v>6.451159000396729</v>
+        <v>4.729062080383301</v>
       </c>
       <c r="M15">
-        <v>3.874839067459106</v>
+        <v>3.668360233306885</v>
       </c>
       <c r="N15">
-        <v>11.97747993469238</v>
+        <v>7.983016014099121</v>
       </c>
       <c r="O15">
-        <v>1.13051700592041</v>
+        <v>1.262098431587219</v>
       </c>
       <c r="P15">
-        <v>9.665430068969727</v>
+        <v>7.158675193786621</v>
       </c>
       <c r="Q15">
-        <v>20.30855941772461</v>
+        <v>14.51872825622559</v>
       </c>
       <c r="R15">
-        <v>8.15632438659668</v>
+        <v>6.266664505004883</v>
       </c>
       <c r="S15">
-        <v>21.64056015014648</v>
+        <v>16.33665466308594</v>
       </c>
       <c r="T15">
-        <v>17.21408843994141</v>
+        <v>11.17814826965332</v>
       </c>
       <c r="U15">
-        <v>20.33823013305664</v>
+        <v>16.40420532226562</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1349,64 +1349,64 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.70645904541016</v>
+        <v>19.89072799682617</v>
       </c>
       <c r="C16">
-        <v>29.61211776733398</v>
+        <v>24.2470874786377</v>
       </c>
       <c r="D16">
-        <v>22.27077865600586</v>
+        <v>22.12564849853516</v>
       </c>
       <c r="E16">
-        <v>20.91640853881836</v>
+        <v>19.99484634399414</v>
       </c>
       <c r="F16">
-        <v>23.40019416809082</v>
+        <v>21.53224182128906</v>
       </c>
       <c r="G16">
-        <v>24.45550346374512</v>
+        <v>21.74131965637207</v>
       </c>
       <c r="H16">
-        <v>24.36030006408691</v>
+        <v>22.56499481201172</v>
       </c>
       <c r="I16">
-        <v>27.05887031555176</v>
+        <v>23.99308013916016</v>
       </c>
       <c r="J16">
-        <v>19.55509757995605</v>
+        <v>20.54833793640137</v>
       </c>
       <c r="K16">
-        <v>24.85978889465332</v>
+        <v>21.4747428894043</v>
       </c>
       <c r="L16">
-        <v>6.539035797119141</v>
+        <v>5.476885318756104</v>
       </c>
       <c r="M16">
-        <v>12.67358303070068</v>
+        <v>10.48977088928223</v>
       </c>
       <c r="N16">
-        <v>2.805396318435669</v>
+        <v>2.354400157928467</v>
       </c>
       <c r="O16">
-        <v>9.479029655456543</v>
+        <v>7.201093673706055</v>
       </c>
       <c r="P16">
-        <v>1.222403764724731</v>
+        <v>1.139045238494873</v>
       </c>
       <c r="Q16">
-        <v>23.03452491760254</v>
+        <v>15.92981147766113</v>
       </c>
       <c r="R16">
-        <v>3.154311656951904</v>
+        <v>2.590369462966919</v>
       </c>
       <c r="S16">
-        <v>25.31345367431641</v>
+        <v>17.70011901855469</v>
       </c>
       <c r="T16">
-        <v>10.50615692138672</v>
+        <v>6.483339309692383</v>
       </c>
       <c r="U16">
-        <v>19.14421844482422</v>
+        <v>14.62013721466064</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1414,64 +1414,64 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.00309944152832</v>
+        <v>13.14921951293945</v>
       </c>
       <c r="C17">
-        <v>18.73324584960938</v>
+        <v>12.78972721099854</v>
       </c>
       <c r="D17">
-        <v>16.48116683959961</v>
+        <v>13.22008037567139</v>
       </c>
       <c r="E17">
-        <v>17.3592643737793</v>
+        <v>13.86465167999268</v>
       </c>
       <c r="F17">
-        <v>15.17436695098877</v>
+        <v>12.02661228179932</v>
       </c>
       <c r="G17">
-        <v>15.69767951965332</v>
+        <v>11.67288494110107</v>
       </c>
       <c r="H17">
-        <v>15.63833332061768</v>
+        <v>12.26771926879883</v>
       </c>
       <c r="I17">
-        <v>18.54457855224609</v>
+        <v>14.19901657104492</v>
       </c>
       <c r="J17">
-        <v>16.94720077514648</v>
+        <v>12.71128368377686</v>
       </c>
       <c r="K17">
-        <v>17.19775390625</v>
+        <v>12.43798351287842</v>
       </c>
       <c r="L17">
-        <v>22.34483337402344</v>
+        <v>15.99231624603271</v>
       </c>
       <c r="M17">
-        <v>20.38213920593262</v>
+        <v>15.64034748077393</v>
       </c>
       <c r="N17">
-        <v>21.80586814880371</v>
+        <v>14.77858066558838</v>
       </c>
       <c r="O17">
-        <v>18.37631416320801</v>
+        <v>14.42471504211426</v>
       </c>
       <c r="P17">
-        <v>22.37202072143555</v>
+        <v>15.44996643066406</v>
       </c>
       <c r="Q17">
-        <v>2.303276300430298</v>
+        <v>2.093934535980225</v>
       </c>
       <c r="R17">
-        <v>20.21744346618652</v>
+        <v>14.09160804748535</v>
       </c>
       <c r="S17">
-        <v>6.845673084259033</v>
+        <v>4.880380153656006</v>
       </c>
       <c r="T17">
-        <v>16.07890892028809</v>
+        <v>12.32066249847412</v>
       </c>
       <c r="U17">
-        <v>8.925727844238281</v>
+        <v>7.875104904174805</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1479,64 +1479,64 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.45998573303223</v>
+        <v>20.40630531311035</v>
       </c>
       <c r="C18">
-        <v>28.26399993896484</v>
+        <v>22.52903366088867</v>
       </c>
       <c r="D18">
-        <v>22.46131134033203</v>
+        <v>22.02874374389648</v>
       </c>
       <c r="E18">
-        <v>20.08936309814453</v>
+        <v>19.96024131774902</v>
       </c>
       <c r="F18">
-        <v>21.42980003356934</v>
+        <v>20.58343696594238</v>
       </c>
       <c r="G18">
-        <v>22.55468940734863</v>
+        <v>20.98519897460938</v>
       </c>
       <c r="H18">
-        <v>23.66123962402344</v>
+        <v>21.90513801574707</v>
       </c>
       <c r="I18">
-        <v>24.91316223144531</v>
+        <v>22.40336036682129</v>
       </c>
       <c r="J18">
-        <v>18.15765380859375</v>
+        <v>19.50630950927734</v>
       </c>
       <c r="K18">
-        <v>22.89504051208496</v>
+        <v>20.60097885131836</v>
       </c>
       <c r="L18">
-        <v>4.133430480957031</v>
+        <v>3.69990348815918</v>
       </c>
       <c r="M18">
-        <v>11.36196136474609</v>
+        <v>9.39628791809082</v>
       </c>
       <c r="N18">
-        <v>3.197431325912476</v>
+        <v>2.569981575012207</v>
       </c>
       <c r="O18">
-        <v>8.224594116210938</v>
+        <v>6.139365196228027</v>
       </c>
       <c r="P18">
-        <v>3.310088396072388</v>
+        <v>2.945865869522095</v>
       </c>
       <c r="Q18">
-        <v>21.04691696166992</v>
+        <v>14.39325714111328</v>
       </c>
       <c r="R18">
-        <v>1.4607754945755</v>
+        <v>1.284087419509888</v>
       </c>
       <c r="S18">
-        <v>23.69438552856445</v>
+        <v>16.48038101196289</v>
       </c>
       <c r="T18">
-        <v>9.599531173706055</v>
+        <v>6.620954513549805</v>
       </c>
       <c r="U18">
-        <v>18.07006454467773</v>
+        <v>14.20997619628906</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1544,64 +1544,64 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.09539985656738</v>
+        <v>15.71085166931152</v>
       </c>
       <c r="C19">
-        <v>19.94301414489746</v>
+        <v>13.60227203369141</v>
       </c>
       <c r="D19">
-        <v>20.62375450134277</v>
+        <v>15.58690357208252</v>
       </c>
       <c r="E19">
-        <v>21.26106452941895</v>
+        <v>15.89925289154053</v>
       </c>
       <c r="F19">
-        <v>15.81633186340332</v>
+        <v>12.65432739257812</v>
       </c>
       <c r="G19">
-        <v>20.42955017089844</v>
+        <v>14.26512813568115</v>
       </c>
       <c r="H19">
-        <v>16.01936531066895</v>
+        <v>13.12762451171875</v>
       </c>
       <c r="I19">
-        <v>22.07992553710938</v>
+        <v>16.57666015625</v>
       </c>
       <c r="J19">
-        <v>20.68353271484375</v>
+        <v>15.17643737792969</v>
       </c>
       <c r="K19">
-        <v>18.23673629760742</v>
+        <v>13.58173179626465</v>
       </c>
       <c r="L19">
-        <v>27.48809623718262</v>
+        <v>18.38267707824707</v>
       </c>
       <c r="M19">
-        <v>23.28350067138672</v>
+        <v>17.01638221740723</v>
       </c>
       <c r="N19">
-        <v>25.49873352050781</v>
+        <v>16.48191833496094</v>
       </c>
       <c r="O19">
-        <v>20.65645599365234</v>
+        <v>15.89514255523682</v>
       </c>
       <c r="P19">
-        <v>25.51255798339844</v>
+        <v>16.82894134521484</v>
       </c>
       <c r="Q19">
-        <v>6.788784980773926</v>
+        <v>4.868184089660645</v>
       </c>
       <c r="R19">
-        <v>23.83136749267578</v>
+        <v>15.7435827255249</v>
       </c>
       <c r="S19">
-        <v>0.8870152235031128</v>
+        <v>0.9111793041229248</v>
       </c>
       <c r="T19">
-        <v>18.04703140258789</v>
+        <v>13.1555643081665</v>
       </c>
       <c r="U19">
-        <v>12.32755374908447</v>
+        <v>10.04728126525879</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1609,64 +1609,64 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.08697891235352</v>
+        <v>20.53762435913086</v>
       </c>
       <c r="C20">
-        <v>33.49406433105469</v>
+        <v>24.18454360961914</v>
       </c>
       <c r="D20">
-        <v>25.57659339904785</v>
+        <v>21.70075035095215</v>
       </c>
       <c r="E20">
-        <v>23.73599624633789</v>
+        <v>20.66684722900391</v>
       </c>
       <c r="F20">
-        <v>23.30092620849609</v>
+        <v>21.25514221191406</v>
       </c>
       <c r="G20">
-        <v>24.38315773010254</v>
+        <v>20.45385551452637</v>
       </c>
       <c r="H20">
-        <v>25.75153923034668</v>
+        <v>21.76492500305176</v>
       </c>
       <c r="I20">
-        <v>28.05414581298828</v>
+        <v>23.40136337280273</v>
       </c>
       <c r="J20">
-        <v>23.05430221557617</v>
+        <v>20.27975463867188</v>
       </c>
       <c r="K20">
-        <v>26.44737434387207</v>
+        <v>21.50362586975098</v>
       </c>
       <c r="L20">
-        <v>12.37269878387451</v>
+        <v>8.823417663574219</v>
       </c>
       <c r="M20">
-        <v>18.98103523254395</v>
+        <v>14.8493070602417</v>
       </c>
       <c r="N20">
-        <v>9.078536987304688</v>
+        <v>6.526676177978516</v>
       </c>
       <c r="O20">
-        <v>15.06878852844238</v>
+        <v>11.20796203613281</v>
       </c>
       <c r="P20">
-        <v>9.34004020690918</v>
+        <v>6.721814632415771</v>
       </c>
       <c r="Q20">
-        <v>16.46112632751465</v>
+        <v>12.25544357299805</v>
       </c>
       <c r="R20">
-        <v>8.88099193572998</v>
+        <v>6.446812629699707</v>
       </c>
       <c r="S20">
-        <v>17.54375457763672</v>
+        <v>13.62218475341797</v>
       </c>
       <c r="T20">
-        <v>2.003384828567505</v>
+        <v>1.882740259170532</v>
       </c>
       <c r="U20">
-        <v>14.18754291534424</v>
+        <v>11.01956272125244</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1674,64 +1674,64 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.90897750854492</v>
+        <v>18.75577354431152</v>
       </c>
       <c r="C21">
-        <v>26.95052146911621</v>
+        <v>18.80008506774902</v>
       </c>
       <c r="D21">
-        <v>23.55757141113281</v>
+        <v>17.9586124420166</v>
       </c>
       <c r="E21">
-        <v>23.30153656005859</v>
+        <v>18.93840789794922</v>
       </c>
       <c r="F21">
-        <v>23.92441940307617</v>
+        <v>19.70112228393555</v>
       </c>
       <c r="G21">
-        <v>22.40057182312012</v>
+        <v>17.40059471130371</v>
       </c>
       <c r="H21">
-        <v>24.38137435913086</v>
+        <v>18.79179000854492</v>
       </c>
       <c r="I21">
-        <v>28.10434722900391</v>
+        <v>22.34435272216797</v>
       </c>
       <c r="J21">
-        <v>21.79859924316406</v>
+        <v>17.54210090637207</v>
       </c>
       <c r="K21">
-        <v>26.89940643310547</v>
+        <v>20.2742748260498</v>
       </c>
       <c r="L21">
-        <v>22.6750545501709</v>
+        <v>15.92965888977051</v>
       </c>
       <c r="M21">
-        <v>23.83527565002441</v>
+        <v>19.79911231994629</v>
       </c>
       <c r="N21">
-        <v>19.87051963806152</v>
+        <v>13.9726390838623</v>
       </c>
       <c r="O21">
-        <v>20.51589775085449</v>
+        <v>16.42937850952148</v>
       </c>
       <c r="P21">
-        <v>19.96092796325684</v>
+        <v>14.35485935211182</v>
       </c>
       <c r="Q21">
-        <v>9.947193145751953</v>
+        <v>7.621743202209473</v>
       </c>
       <c r="R21">
-        <v>19.1120433807373</v>
+        <v>13.87042808532715</v>
       </c>
       <c r="S21">
-        <v>12.03902053833008</v>
+        <v>9.719215393066406</v>
       </c>
       <c r="T21">
-        <v>14.74807262420654</v>
+        <v>10.88981628417969</v>
       </c>
       <c r="U21">
-        <v>1.565848588943481</v>
+        <v>1.492494583129883</v>
       </c>
     </row>
   </sheetData>

--- a/code/experiment/dataset_similarity/data/teste.xlsx
+++ b/code/experiment/dataset_similarity/data/teste.xlsx
@@ -439,64 +439,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.336547613143921</v>
+        <v>2.395711183547974</v>
       </c>
       <c r="C2">
-        <v>13.64944744110107</v>
+        <v>14.07291984558105</v>
       </c>
       <c r="D2">
-        <v>10.12326908111572</v>
+        <v>10.45805072784424</v>
       </c>
       <c r="E2">
-        <v>9.365433692932129</v>
+        <v>9.528415679931641</v>
       </c>
       <c r="F2">
-        <v>10.66031169891357</v>
+        <v>10.55380439758301</v>
       </c>
       <c r="G2">
-        <v>8.096811294555664</v>
+        <v>8.147385597229004</v>
       </c>
       <c r="H2">
-        <v>8.555709838867188</v>
+        <v>8.609312057495117</v>
       </c>
       <c r="I2">
-        <v>11.56233406066895</v>
+        <v>11.74765872955322</v>
       </c>
       <c r="J2">
-        <v>9.268943786621094</v>
+        <v>9.296224594116211</v>
       </c>
       <c r="K2">
-        <v>10.37362003326416</v>
+        <v>10.7495059967041</v>
       </c>
       <c r="L2">
-        <v>20.11332321166992</v>
+        <v>20.0731086730957</v>
       </c>
       <c r="M2">
-        <v>17.34599494934082</v>
+        <v>17.28020477294922</v>
       </c>
       <c r="N2">
-        <v>19.62322998046875</v>
+        <v>19.13484764099121</v>
       </c>
       <c r="O2">
-        <v>17.01545524597168</v>
+        <v>16.8355655670166</v>
       </c>
       <c r="P2">
-        <v>18.36225700378418</v>
+        <v>17.9830322265625</v>
       </c>
       <c r="Q2">
-        <v>12.5622034072876</v>
+        <v>12.40943241119385</v>
       </c>
       <c r="R2">
-        <v>19.30990219116211</v>
+        <v>18.86658096313477</v>
       </c>
       <c r="S2">
-        <v>14.93456077575684</v>
+        <v>14.49545574188232</v>
       </c>
       <c r="T2">
-        <v>19.86452865600586</v>
+        <v>20.35262680053711</v>
       </c>
       <c r="U2">
-        <v>18.07280158996582</v>
+        <v>18.23113059997559</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -504,64 +504,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.29642105102539</v>
+        <v>13.97135734558105</v>
       </c>
       <c r="C3">
-        <v>0.7859194874763489</v>
+        <v>0.8921167850494385</v>
       </c>
       <c r="D3">
-        <v>10.27321529388428</v>
+        <v>10.5791597366333</v>
       </c>
       <c r="E3">
-        <v>9.89112377166748</v>
+        <v>9.055915832519531</v>
       </c>
       <c r="F3">
-        <v>10.11302471160889</v>
+        <v>9.815998077392578</v>
       </c>
       <c r="G3">
-        <v>9.891803741455078</v>
+        <v>9.899103164672852</v>
       </c>
       <c r="H3">
-        <v>9.731746673583984</v>
+        <v>9.527603149414062</v>
       </c>
       <c r="I3">
-        <v>9.389983177185059</v>
+        <v>9.643747329711914</v>
       </c>
       <c r="J3">
-        <v>7.592452526092529</v>
+        <v>8.364949226379395</v>
       </c>
       <c r="K3">
-        <v>8.629242897033691</v>
+        <v>8.68535327911377</v>
       </c>
       <c r="L3">
-        <v>20.86043357849121</v>
+        <v>20.83749580383301</v>
       </c>
       <c r="M3">
-        <v>14.64461803436279</v>
+        <v>14.75675868988037</v>
       </c>
       <c r="N3">
-        <v>22.42617988586426</v>
+        <v>22.19707870483398</v>
       </c>
       <c r="O3">
-        <v>15.1562328338623</v>
+        <v>14.66127014160156</v>
       </c>
       <c r="P3">
-        <v>22.73140335083008</v>
+        <v>22.6588134765625</v>
       </c>
       <c r="Q3">
-        <v>12.71327877044678</v>
+        <v>12.51849460601807</v>
       </c>
       <c r="R3">
-        <v>21.73834991455078</v>
+        <v>20.98695755004883</v>
       </c>
       <c r="S3">
-        <v>13.35111141204834</v>
+        <v>12.91294860839844</v>
       </c>
       <c r="T3">
-        <v>23.61389541625977</v>
+        <v>24.53734397888184</v>
       </c>
       <c r="U3">
-        <v>18.32161140441895</v>
+        <v>18.68938446044922</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -569,64 +569,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.5029821395874</v>
+        <v>10.62159538269043</v>
       </c>
       <c r="C4">
-        <v>11.22893905639648</v>
+        <v>11.07244300842285</v>
       </c>
       <c r="D4">
-        <v>3.815461158752441</v>
+        <v>3.673875093460083</v>
       </c>
       <c r="E4">
-        <v>8.225736618041992</v>
+        <v>8.43053150177002</v>
       </c>
       <c r="F4">
-        <v>10.7297477722168</v>
+        <v>10.42666912078857</v>
       </c>
       <c r="G4">
-        <v>10.4803991317749</v>
+        <v>10.64348220825195</v>
       </c>
       <c r="H4">
-        <v>9.779529571533203</v>
+        <v>9.570448875427246</v>
       </c>
       <c r="I4">
-        <v>11.93268585205078</v>
+        <v>11.94271278381348</v>
       </c>
       <c r="J4">
-        <v>8.671963691711426</v>
+        <v>8.603143692016602</v>
       </c>
       <c r="K4">
-        <v>10.93287563323975</v>
+        <v>10.94399070739746</v>
       </c>
       <c r="L4">
-        <v>21.37850952148438</v>
+        <v>21.83736228942871</v>
       </c>
       <c r="M4">
-        <v>17.94173622131348</v>
+        <v>18.01437568664551</v>
       </c>
       <c r="N4">
-        <v>21.34708786010742</v>
+        <v>21.57669258117676</v>
       </c>
       <c r="O4">
-        <v>18.25536918640137</v>
+        <v>18.08359146118164</v>
       </c>
       <c r="P4">
-        <v>20.74480056762695</v>
+        <v>21.1754322052002</v>
       </c>
       <c r="Q4">
-        <v>13.94647312164307</v>
+        <v>13.77451133728027</v>
       </c>
       <c r="R4">
-        <v>21.53956985473633</v>
+        <v>21.55279541015625</v>
       </c>
       <c r="S4">
-        <v>16.29983139038086</v>
+        <v>16.00986480712891</v>
       </c>
       <c r="T4">
-        <v>21.70755386352539</v>
+        <v>22.62295532226562</v>
       </c>
       <c r="U4">
-        <v>17.80024909973145</v>
+        <v>18.08736610412598</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -634,64 +634,64 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.27401065826416</v>
+        <v>9.649622917175293</v>
       </c>
       <c r="C5">
-        <v>9.728351593017578</v>
+        <v>9.626960754394531</v>
       </c>
       <c r="D5">
-        <v>8.006418228149414</v>
+        <v>8.535248756408691</v>
       </c>
       <c r="E5">
-        <v>2.899756908416748</v>
+        <v>2.912739276885986</v>
       </c>
       <c r="F5">
-        <v>9.689752578735352</v>
+        <v>9.846665382385254</v>
       </c>
       <c r="G5">
-        <v>6.458153247833252</v>
+        <v>6.549894332885742</v>
       </c>
       <c r="H5">
-        <v>9.605751037597656</v>
+        <v>9.743757247924805</v>
       </c>
       <c r="I5">
-        <v>9.91567325592041</v>
+        <v>9.908475875854492</v>
       </c>
       <c r="J5">
-        <v>6.599021911621094</v>
+        <v>6.822500228881836</v>
       </c>
       <c r="K5">
-        <v>8.879792213439941</v>
+        <v>8.757972717285156</v>
       </c>
       <c r="L5">
-        <v>18.28191375732422</v>
+        <v>18.53074264526367</v>
       </c>
       <c r="M5">
-        <v>13.80556583404541</v>
+        <v>14.07568645477295</v>
       </c>
       <c r="N5">
-        <v>18.98725891113281</v>
+        <v>18.748291015625</v>
       </c>
       <c r="O5">
-        <v>14.09810638427734</v>
+        <v>14.05707454681396</v>
       </c>
       <c r="P5">
-        <v>18.36602401733398</v>
+        <v>18.35344505310059</v>
       </c>
       <c r="Q5">
-        <v>13.68918228149414</v>
+        <v>13.63131523132324</v>
       </c>
       <c r="R5">
-        <v>18.79789352416992</v>
+        <v>18.41143035888672</v>
       </c>
       <c r="S5">
-        <v>15.6071949005127</v>
+        <v>15.19145584106445</v>
       </c>
       <c r="T5">
-        <v>20.05998992919922</v>
+        <v>20.76952934265137</v>
       </c>
       <c r="U5">
-        <v>18.11346054077148</v>
+        <v>18.42239379882812</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -699,64 +699,64 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.74090385437012</v>
+        <v>10.41233825683594</v>
       </c>
       <c r="C6">
-        <v>9.758565902709961</v>
+        <v>10.37377166748047</v>
       </c>
       <c r="D6">
-        <v>10.01089286804199</v>
+        <v>10.40667247772217</v>
       </c>
       <c r="E6">
-        <v>9.582503318786621</v>
+        <v>9.560063362121582</v>
       </c>
       <c r="F6">
-        <v>2.670472860336304</v>
+        <v>2.817110538482666</v>
       </c>
       <c r="G6">
-        <v>8.350912094116211</v>
+        <v>8.410888671875</v>
       </c>
       <c r="H6">
-        <v>8.625466346740723</v>
+        <v>8.628128051757812</v>
       </c>
       <c r="I6">
-        <v>8.028717994689941</v>
+        <v>8.269709587097168</v>
       </c>
       <c r="J6">
-        <v>7.658924102783203</v>
+        <v>7.991639137268066</v>
       </c>
       <c r="K6">
-        <v>4.338486671447754</v>
+        <v>4.785810947418213</v>
       </c>
       <c r="L6">
-        <v>19.69278526306152</v>
+        <v>19.60898590087891</v>
       </c>
       <c r="M6">
-        <v>13.95447158813477</v>
+        <v>14.1171236038208</v>
       </c>
       <c r="N6">
-        <v>20.50760459899902</v>
+        <v>20.04040908813477</v>
       </c>
       <c r="O6">
-        <v>15.10084056854248</v>
+        <v>14.78557205200195</v>
       </c>
       <c r="P6">
-        <v>19.95898246765137</v>
+        <v>19.81217384338379</v>
       </c>
       <c r="Q6">
-        <v>11.51655673980713</v>
+        <v>11.41487693786621</v>
       </c>
       <c r="R6">
-        <v>19.7458381652832</v>
+        <v>19.15678024291992</v>
       </c>
       <c r="S6">
-        <v>12.04375171661377</v>
+        <v>11.62926864624023</v>
       </c>
       <c r="T6">
-        <v>20.59622573852539</v>
+        <v>21.30498695373535</v>
       </c>
       <c r="U6">
-        <v>18.81634140014648</v>
+        <v>19.10046005249023</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -764,64 +764,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.215083122253418</v>
+        <v>8.160637855529785</v>
       </c>
       <c r="C7">
-        <v>10.14477157592773</v>
+        <v>10.50733947753906</v>
       </c>
       <c r="D7">
-        <v>9.912221908569336</v>
+        <v>10.77635097503662</v>
       </c>
       <c r="E7">
-        <v>6.48832368850708</v>
+        <v>6.238645076751709</v>
       </c>
       <c r="F7">
-        <v>8.679368019104004</v>
+        <v>8.52849292755127</v>
       </c>
       <c r="G7">
-        <v>2.838535785675049</v>
+        <v>2.872000455856323</v>
       </c>
       <c r="H7">
-        <v>8.486595153808594</v>
+        <v>8.67774486541748</v>
       </c>
       <c r="I7">
-        <v>9.593286514282227</v>
+        <v>10.11905002593994</v>
       </c>
       <c r="J7">
-        <v>6.143153190612793</v>
+        <v>6.088100433349609</v>
       </c>
       <c r="K7">
-        <v>7.946469306945801</v>
+        <v>8.006150245666504</v>
       </c>
       <c r="L7">
-        <v>19.47769927978516</v>
+        <v>19.38157653808594</v>
       </c>
       <c r="M7">
-        <v>15.58656215667725</v>
+        <v>15.31271076202393</v>
       </c>
       <c r="N7">
-        <v>20.70282173156738</v>
+        <v>20.3188648223877</v>
       </c>
       <c r="O7">
-        <v>16.03499603271484</v>
+        <v>15.35361862182617</v>
       </c>
       <c r="P7">
-        <v>20.24566841125488</v>
+        <v>19.91577911376953</v>
       </c>
       <c r="Q7">
-        <v>11.69140338897705</v>
+        <v>11.73757839202881</v>
       </c>
       <c r="R7">
-        <v>20.16903114318848</v>
+        <v>19.50597763061523</v>
       </c>
       <c r="S7">
-        <v>14.25789451599121</v>
+        <v>13.93987464904785</v>
       </c>
       <c r="T7">
-        <v>20.05394172668457</v>
+        <v>20.65646743774414</v>
       </c>
       <c r="U7">
-        <v>17.19286346435547</v>
+        <v>17.60330581665039</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -829,64 +829,64 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.160643577575684</v>
+        <v>8.604549407958984</v>
       </c>
       <c r="C8">
-        <v>9.001350402832031</v>
+        <v>9.761944770812988</v>
       </c>
       <c r="D8">
-        <v>9.413236618041992</v>
+        <v>9.472501754760742</v>
       </c>
       <c r="E8">
-        <v>9.621917724609375</v>
+        <v>9.524056434631348</v>
       </c>
       <c r="F8">
-        <v>8.612136840820312</v>
+        <v>8.516286849975586</v>
       </c>
       <c r="G8">
-        <v>8.134069442749023</v>
+        <v>8.501875877380371</v>
       </c>
       <c r="H8">
-        <v>2.212283849716187</v>
+        <v>2.373818635940552</v>
       </c>
       <c r="I8">
-        <v>11.7943696975708</v>
+        <v>12.1109504699707</v>
       </c>
       <c r="J8">
-        <v>7.633749961853027</v>
+        <v>8.032991409301758</v>
       </c>
       <c r="K8">
-        <v>8.50175952911377</v>
+        <v>9.034590721130371</v>
       </c>
       <c r="L8">
-        <v>20.48943328857422</v>
+        <v>20.28699493408203</v>
       </c>
       <c r="M8">
-        <v>14.41907691955566</v>
+        <v>14.54915618896484</v>
       </c>
       <c r="N8">
-        <v>21.68799018859863</v>
+        <v>21.1795539855957</v>
       </c>
       <c r="O8">
-        <v>15.40600681304932</v>
+        <v>15.12764167785645</v>
       </c>
       <c r="P8">
-        <v>21.27304267883301</v>
+        <v>20.86118316650391</v>
       </c>
       <c r="Q8">
-        <v>12.25695514678955</v>
+        <v>12.08432865142822</v>
       </c>
       <c r="R8">
-        <v>21.42353248596191</v>
+        <v>20.52202606201172</v>
       </c>
       <c r="S8">
-        <v>12.86499309539795</v>
+        <v>12.42643356323242</v>
       </c>
       <c r="T8">
-        <v>21.86420822143555</v>
+        <v>22.22909927368164</v>
       </c>
       <c r="U8">
-        <v>18.80953979492188</v>
+        <v>18.62608337402344</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -894,64 +894,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.06117630004883</v>
+        <v>11.70163917541504</v>
       </c>
       <c r="C9">
-        <v>9.207642555236816</v>
+        <v>9.534611701965332</v>
       </c>
       <c r="D9">
-        <v>11.44069290161133</v>
+        <v>12.23576927185059</v>
       </c>
       <c r="E9">
-        <v>9.886874198913574</v>
+        <v>9.603821754455566</v>
       </c>
       <c r="F9">
-        <v>8.057452201843262</v>
+        <v>8.028216361999512</v>
       </c>
       <c r="G9">
-        <v>9.937253952026367</v>
+        <v>9.791437149047852</v>
       </c>
       <c r="H9">
-        <v>12.19632625579834</v>
+        <v>12.38371086120605</v>
       </c>
       <c r="I9">
-        <v>2.132399559020996</v>
+        <v>2.151604652404785</v>
       </c>
       <c r="J9">
-        <v>8.12180233001709</v>
+        <v>8.429543495178223</v>
       </c>
       <c r="K9">
-        <v>5.846623420715332</v>
+        <v>5.896065235137939</v>
       </c>
       <c r="L9">
-        <v>20.6665096282959</v>
+        <v>20.41299057006836</v>
       </c>
       <c r="M9">
-        <v>15.96156215667725</v>
+        <v>15.89586353302002</v>
       </c>
       <c r="N9">
-        <v>22.5684814453125</v>
+        <v>22.03125</v>
       </c>
       <c r="O9">
-        <v>16.84504890441895</v>
+        <v>16.25471115112305</v>
       </c>
       <c r="P9">
-        <v>22.77750587463379</v>
+        <v>22.27331924438477</v>
       </c>
       <c r="Q9">
-        <v>14.23154163360596</v>
+        <v>14.31491088867188</v>
       </c>
       <c r="R9">
-        <v>21.65088081359863</v>
+        <v>20.87219429016113</v>
       </c>
       <c r="S9">
-        <v>16.47991561889648</v>
+        <v>16.16427803039551</v>
       </c>
       <c r="T9">
-        <v>22.967529296875</v>
+        <v>23.78794097900391</v>
       </c>
       <c r="U9">
-        <v>22.02096176147461</v>
+        <v>22.39459991455078</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -959,64 +959,64 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.771153450012207</v>
+        <v>9.319670677185059</v>
       </c>
       <c r="C10">
-        <v>8.080004692077637</v>
+        <v>8.039297103881836</v>
       </c>
       <c r="D10">
-        <v>8.188408851623535</v>
+        <v>8.558719635009766</v>
       </c>
       <c r="E10">
-        <v>6.872292995452881</v>
+        <v>6.435437202453613</v>
       </c>
       <c r="F10">
-        <v>7.72067928314209</v>
+        <v>7.594711780548096</v>
       </c>
       <c r="G10">
-        <v>6.163373470306396</v>
+        <v>6.099926948547363</v>
       </c>
       <c r="H10">
-        <v>8.246721267700195</v>
+        <v>7.971614837646484</v>
       </c>
       <c r="I10">
-        <v>8.282583236694336</v>
+        <v>8.251755714416504</v>
       </c>
       <c r="J10">
-        <v>2.629605770111084</v>
+        <v>2.707194328308105</v>
       </c>
       <c r="K10">
-        <v>6.511173248291016</v>
+        <v>6.643001556396484</v>
       </c>
       <c r="L10">
-        <v>16.90248680114746</v>
+        <v>17.14337921142578</v>
       </c>
       <c r="M10">
-        <v>12.41220474243164</v>
+        <v>12.44901180267334</v>
       </c>
       <c r="N10">
-        <v>19.60836982727051</v>
+        <v>19.338623046875</v>
       </c>
       <c r="O10">
-        <v>13.15061664581299</v>
+        <v>12.66601848602295</v>
       </c>
       <c r="P10">
-        <v>19.11455154418945</v>
+        <v>18.86722183227539</v>
       </c>
       <c r="Q10">
-        <v>13.06078910827637</v>
+        <v>13.03473472595215</v>
       </c>
       <c r="R10">
-        <v>18.8099193572998</v>
+        <v>18.08636856079102</v>
       </c>
       <c r="S10">
-        <v>15.51811599731445</v>
+        <v>14.75817966461182</v>
       </c>
       <c r="T10">
-        <v>19.84749031066895</v>
+        <v>20.40789604187012</v>
       </c>
       <c r="U10">
-        <v>17.36590576171875</v>
+        <v>17.62321281433105</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1024,64 +1024,64 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.60480117797852</v>
+        <v>10.83552265167236</v>
       </c>
       <c r="C11">
-        <v>8.920932769775391</v>
+        <v>9.368515968322754</v>
       </c>
       <c r="D11">
-        <v>10.23073196411133</v>
+        <v>10.81511878967285</v>
       </c>
       <c r="E11">
-        <v>8.833873748779297</v>
+        <v>8.510127067565918</v>
       </c>
       <c r="F11">
-        <v>4.262434005737305</v>
+        <v>4.611259937286377</v>
       </c>
       <c r="G11">
-        <v>8.091442108154297</v>
+        <v>8.068145751953125</v>
       </c>
       <c r="H11">
-        <v>8.833763122558594</v>
+        <v>9.081942558288574</v>
       </c>
       <c r="I11">
-        <v>6.04883861541748</v>
+        <v>6.179855823516846</v>
       </c>
       <c r="J11">
-        <v>6.52556324005127</v>
+        <v>6.981284141540527</v>
       </c>
       <c r="K11">
-        <v>1.949339389801025</v>
+        <v>2.042842388153076</v>
       </c>
       <c r="L11">
-        <v>19.28548240661621</v>
+        <v>19.43611526489258</v>
       </c>
       <c r="M11">
-        <v>12.4408130645752</v>
+        <v>12.65682983398438</v>
       </c>
       <c r="N11">
-        <v>20.77149963378906</v>
+        <v>20.71025848388672</v>
       </c>
       <c r="O11">
-        <v>14.2076301574707</v>
+        <v>13.89827442169189</v>
       </c>
       <c r="P11">
-        <v>19.91063690185547</v>
+        <v>20.0877513885498</v>
       </c>
       <c r="Q11">
-        <v>12.57750511169434</v>
+        <v>12.80219268798828</v>
       </c>
       <c r="R11">
-        <v>19.89189529418945</v>
+        <v>19.46980285644531</v>
       </c>
       <c r="S11">
-        <v>13.58980178833008</v>
+        <v>13.37640857696533</v>
       </c>
       <c r="T11">
-        <v>20.96441459655762</v>
+        <v>22.02751541137695</v>
       </c>
       <c r="U11">
-        <v>20.0519962310791</v>
+        <v>20.76525688171387</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1089,64 +1089,64 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.33990478515625</v>
+        <v>19.4974193572998</v>
       </c>
       <c r="C12">
-        <v>22.00384902954102</v>
+        <v>20.06478881835938</v>
       </c>
       <c r="D12">
-        <v>21.80034255981445</v>
+        <v>20.93140411376953</v>
       </c>
       <c r="E12">
-        <v>19.53282928466797</v>
+        <v>18.02311515808105</v>
       </c>
       <c r="F12">
-        <v>20.5733642578125</v>
+        <v>19.33194160461426</v>
       </c>
       <c r="G12">
-        <v>20.32431411743164</v>
+        <v>18.80686378479004</v>
       </c>
       <c r="H12">
-        <v>21.33062744140625</v>
+        <v>20.20853233337402</v>
       </c>
       <c r="I12">
-        <v>21.5714111328125</v>
+        <v>19.82240676879883</v>
       </c>
       <c r="J12">
-        <v>18.01275253295898</v>
+        <v>16.38564300537109</v>
       </c>
       <c r="K12">
-        <v>20.09350395202637</v>
+        <v>18.64608764648438</v>
       </c>
       <c r="L12">
-        <v>1.333577156066895</v>
+        <v>1.254547476768494</v>
       </c>
       <c r="M12">
-        <v>7.579848289489746</v>
+        <v>7.481058120727539</v>
       </c>
       <c r="N12">
-        <v>5.351109981536865</v>
+        <v>5.320359230041504</v>
       </c>
       <c r="O12">
-        <v>4.997971534729004</v>
+        <v>5.03391695022583</v>
       </c>
       <c r="P12">
-        <v>5.542386531829834</v>
+        <v>5.698912620544434</v>
       </c>
       <c r="Q12">
-        <v>16.09262466430664</v>
+        <v>16.36434745788574</v>
       </c>
       <c r="R12">
-        <v>3.704239845275879</v>
+        <v>3.435354709625244</v>
       </c>
       <c r="S12">
-        <v>18.93311309814453</v>
+        <v>17.93242454528809</v>
       </c>
       <c r="T12">
-        <v>8.876686096191406</v>
+        <v>9.683231353759766</v>
       </c>
       <c r="U12">
-        <v>16.06734085083008</v>
+        <v>16.22405242919922</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1154,64 +1154,64 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.95132255554199</v>
+        <v>17.29080390930176</v>
       </c>
       <c r="C13">
-        <v>15.1031379699707</v>
+        <v>14.73641204833984</v>
       </c>
       <c r="D13">
-        <v>17.27500534057617</v>
+        <v>17.67757034301758</v>
       </c>
       <c r="E13">
-        <v>14.35321617126465</v>
+        <v>13.72879505157471</v>
       </c>
       <c r="F13">
-        <v>14.02832412719727</v>
+        <v>14.69781398773193</v>
       </c>
       <c r="G13">
-        <v>15.62721252441406</v>
+        <v>15.51249694824219</v>
       </c>
       <c r="H13">
-        <v>15.02853202819824</v>
+        <v>15.00860977172852</v>
       </c>
       <c r="I13">
-        <v>16.48137474060059</v>
+        <v>16.12226486206055</v>
       </c>
       <c r="J13">
-        <v>12.58601379394531</v>
+        <v>12.67186546325684</v>
       </c>
       <c r="K13">
-        <v>12.55297470092773</v>
+        <v>12.44545650482178</v>
       </c>
       <c r="L13">
-        <v>7.086821556091309</v>
+        <v>7.714097499847412</v>
       </c>
       <c r="M13">
-        <v>0.7332037687301636</v>
+        <v>0.7959765195846558</v>
       </c>
       <c r="N13">
-        <v>10.68392944335938</v>
+        <v>11.21927642822266</v>
       </c>
       <c r="O13">
-        <v>3.558363199234009</v>
+        <v>3.492666959762573</v>
       </c>
       <c r="P13">
-        <v>9.875511169433594</v>
+        <v>10.19869041442871</v>
       </c>
       <c r="Q13">
-        <v>15.84261608123779</v>
+        <v>16.93367576599121</v>
       </c>
       <c r="R13">
-        <v>9.123150825500488</v>
+        <v>9.020772933959961</v>
       </c>
       <c r="S13">
-        <v>17.36459159851074</v>
+        <v>17.19968414306641</v>
       </c>
       <c r="T13">
-        <v>14.85557174682617</v>
+        <v>15.84030342102051</v>
       </c>
       <c r="U13">
-        <v>19.65704345703125</v>
+        <v>20.36142730712891</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1219,64 +1219,64 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.07988548278809</v>
+        <v>19.25643348693848</v>
       </c>
       <c r="C14">
-        <v>24.24419784545898</v>
+        <v>22.59830474853516</v>
       </c>
       <c r="D14">
-        <v>22.43036270141602</v>
+        <v>21.2845401763916</v>
       </c>
       <c r="E14">
-        <v>20.48244285583496</v>
+        <v>19.11119842529297</v>
       </c>
       <c r="F14">
-        <v>21.92026519775391</v>
+        <v>20.64846038818359</v>
       </c>
       <c r="G14">
-        <v>22.08315658569336</v>
+        <v>20.4097900390625</v>
       </c>
       <c r="H14">
-        <v>22.75064086914062</v>
+        <v>21.71866607666016</v>
       </c>
       <c r="I14">
-        <v>24.0068531036377</v>
+        <v>22.25118064880371</v>
       </c>
       <c r="J14">
-        <v>21.05352401733398</v>
+        <v>19.34221649169922</v>
       </c>
       <c r="K14">
-        <v>22.27648735046387</v>
+        <v>20.76058578491211</v>
       </c>
       <c r="L14">
-        <v>5.704664707183838</v>
+        <v>5.428051948547363</v>
       </c>
       <c r="M14">
-        <v>11.57471466064453</v>
+        <v>11.64968299865723</v>
       </c>
       <c r="N14">
-        <v>1.124455690383911</v>
+        <v>1.205519437789917</v>
       </c>
       <c r="O14">
-        <v>8.39017391204834</v>
+        <v>8.451006889343262</v>
       </c>
       <c r="P14">
-        <v>2.400977373123169</v>
+        <v>2.521124124526978</v>
       </c>
       <c r="Q14">
-        <v>15.42720413208008</v>
+        <v>15.71291542053223</v>
       </c>
       <c r="R14">
-        <v>2.520423412322998</v>
+        <v>2.776941776275635</v>
       </c>
       <c r="S14">
-        <v>17.5296802520752</v>
+        <v>16.77096557617188</v>
       </c>
       <c r="T14">
-        <v>6.451161861419678</v>
+        <v>7.02220344543457</v>
       </c>
       <c r="U14">
-        <v>14.35098648071289</v>
+        <v>14.37870025634766</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1284,64 +1284,64 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.07022857666016</v>
+        <v>17.59259223937988</v>
       </c>
       <c r="C15">
-        <v>15.47769355773926</v>
+        <v>15.42947292327881</v>
       </c>
       <c r="D15">
-        <v>17.78599548339844</v>
+        <v>18.34400177001953</v>
       </c>
       <c r="E15">
-        <v>14.95601940155029</v>
+        <v>14.45247840881348</v>
       </c>
       <c r="F15">
-        <v>15.45638465881348</v>
+        <v>16.00579643249512</v>
       </c>
       <c r="G15">
-        <v>16.15293502807617</v>
+        <v>16.31355667114258</v>
       </c>
       <c r="H15">
-        <v>16.08383369445801</v>
+        <v>16.25042724609375</v>
       </c>
       <c r="I15">
-        <v>17.30059814453125</v>
+        <v>17.19907188415527</v>
       </c>
       <c r="J15">
-        <v>13.24352931976318</v>
+        <v>13.54024314880371</v>
       </c>
       <c r="K15">
-        <v>14.36207580566406</v>
+        <v>14.49742794036865</v>
       </c>
       <c r="L15">
-        <v>4.729062080383301</v>
+        <v>5.381999015808105</v>
       </c>
       <c r="M15">
-        <v>3.668360233306885</v>
+        <v>3.965229988098145</v>
       </c>
       <c r="N15">
-        <v>7.983016014099121</v>
+        <v>8.236788749694824</v>
       </c>
       <c r="O15">
-        <v>1.262098431587219</v>
+        <v>1.332581162452698</v>
       </c>
       <c r="P15">
-        <v>7.158675193786621</v>
+        <v>7.236042976379395</v>
       </c>
       <c r="Q15">
-        <v>14.51872825622559</v>
+        <v>15.8515625</v>
       </c>
       <c r="R15">
-        <v>6.266664505004883</v>
+        <v>6.00868558883667</v>
       </c>
       <c r="S15">
-        <v>16.33665466308594</v>
+        <v>16.41285705566406</v>
       </c>
       <c r="T15">
-        <v>11.17814826965332</v>
+        <v>11.93583297729492</v>
       </c>
       <c r="U15">
-        <v>16.40420532226562</v>
+        <v>17.08811187744141</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1349,64 +1349,64 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.89072799682617</v>
+        <v>17.68979644775391</v>
       </c>
       <c r="C16">
-        <v>24.2470874786377</v>
+        <v>22.26863861083984</v>
       </c>
       <c r="D16">
-        <v>22.12564849853516</v>
+        <v>20.55165863037109</v>
       </c>
       <c r="E16">
-        <v>19.99484634399414</v>
+        <v>18.20927047729492</v>
       </c>
       <c r="F16">
-        <v>21.53224182128906</v>
+        <v>19.76067543029785</v>
       </c>
       <c r="G16">
-        <v>21.74131965637207</v>
+        <v>19.66603469848633</v>
       </c>
       <c r="H16">
-        <v>22.56499481201172</v>
+        <v>20.83247184753418</v>
       </c>
       <c r="I16">
-        <v>23.99308013916016</v>
+        <v>21.83485412597656</v>
       </c>
       <c r="J16">
-        <v>20.54833793640137</v>
+        <v>18.4222354888916</v>
       </c>
       <c r="K16">
-        <v>21.4747428894043</v>
+        <v>19.51473426818848</v>
       </c>
       <c r="L16">
-        <v>5.476885318756104</v>
+        <v>5.481533527374268</v>
       </c>
       <c r="M16">
-        <v>10.48977088928223</v>
+        <v>10.14689350128174</v>
       </c>
       <c r="N16">
-        <v>2.354400157928467</v>
+        <v>2.338616371154785</v>
       </c>
       <c r="O16">
-        <v>7.201093673706055</v>
+        <v>7.025392055511475</v>
       </c>
       <c r="P16">
-        <v>1.139045238494873</v>
+        <v>1.245721220970154</v>
       </c>
       <c r="Q16">
-        <v>15.92981147766113</v>
+        <v>15.85168743133545</v>
       </c>
       <c r="R16">
-        <v>2.590369462966919</v>
+        <v>2.829505681991577</v>
       </c>
       <c r="S16">
-        <v>17.70011901855469</v>
+        <v>16.66298675537109</v>
       </c>
       <c r="T16">
-        <v>6.483339309692383</v>
+        <v>6.944081783294678</v>
       </c>
       <c r="U16">
-        <v>14.62013721466064</v>
+        <v>14.41549491882324</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1414,64 +1414,64 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.14921951293945</v>
+        <v>13.11395740509033</v>
       </c>
       <c r="C17">
-        <v>12.78972721099854</v>
+        <v>12.73575115203857</v>
       </c>
       <c r="D17">
-        <v>13.22008037567139</v>
+        <v>13.64743709564209</v>
       </c>
       <c r="E17">
-        <v>13.86465167999268</v>
+        <v>13.60870265960693</v>
       </c>
       <c r="F17">
-        <v>12.02661228179932</v>
+        <v>11.67091941833496</v>
       </c>
       <c r="G17">
-        <v>11.67288494110107</v>
+        <v>11.81392478942871</v>
       </c>
       <c r="H17">
-        <v>12.26771926879883</v>
+        <v>12.33783340454102</v>
       </c>
       <c r="I17">
-        <v>14.19901657104492</v>
+        <v>14.5744743347168</v>
       </c>
       <c r="J17">
-        <v>12.71128368377686</v>
+        <v>13.27172756195068</v>
       </c>
       <c r="K17">
-        <v>12.43798351287842</v>
+        <v>12.63174247741699</v>
       </c>
       <c r="L17">
-        <v>15.99231624603271</v>
+        <v>16.16421699523926</v>
       </c>
       <c r="M17">
-        <v>15.64034748077393</v>
+        <v>16.62634086608887</v>
       </c>
       <c r="N17">
-        <v>14.77858066558838</v>
+        <v>15.09514617919922</v>
       </c>
       <c r="O17">
-        <v>14.42471504211426</v>
+        <v>14.81356430053711</v>
       </c>
       <c r="P17">
-        <v>15.44996643066406</v>
+        <v>15.97563743591309</v>
       </c>
       <c r="Q17">
-        <v>2.093934535980225</v>
+        <v>2.141800165176392</v>
       </c>
       <c r="R17">
-        <v>14.09160804748535</v>
+        <v>14.45329189300537</v>
       </c>
       <c r="S17">
-        <v>4.880380153656006</v>
+        <v>4.559830188751221</v>
       </c>
       <c r="T17">
-        <v>12.32066249847412</v>
+        <v>13.35757446289062</v>
       </c>
       <c r="U17">
-        <v>7.875104904174805</v>
+        <v>7.955307006835938</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1479,64 +1479,64 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.40630531311035</v>
+        <v>18.51311111450195</v>
       </c>
       <c r="C18">
-        <v>22.52903366088867</v>
+        <v>20.98660469055176</v>
       </c>
       <c r="D18">
-        <v>22.02874374389648</v>
+        <v>20.95982551574707</v>
       </c>
       <c r="E18">
-        <v>19.96024131774902</v>
+        <v>18.43395042419434</v>
       </c>
       <c r="F18">
-        <v>20.58343696594238</v>
+        <v>19.35930824279785</v>
       </c>
       <c r="G18">
-        <v>20.98519897460938</v>
+        <v>19.33641815185547</v>
       </c>
       <c r="H18">
-        <v>21.90513801574707</v>
+        <v>20.73472023010254</v>
       </c>
       <c r="I18">
-        <v>22.40336036682129</v>
+        <v>20.75827026367188</v>
       </c>
       <c r="J18">
-        <v>19.50630950927734</v>
+        <v>17.98686981201172</v>
       </c>
       <c r="K18">
-        <v>20.60097885131836</v>
+        <v>19.13418579101562</v>
       </c>
       <c r="L18">
-        <v>3.69990348815918</v>
+        <v>3.45186710357666</v>
       </c>
       <c r="M18">
-        <v>9.39628791809082</v>
+        <v>9.450698852539062</v>
       </c>
       <c r="N18">
-        <v>2.569981575012207</v>
+        <v>2.457365274429321</v>
       </c>
       <c r="O18">
-        <v>6.139365196228027</v>
+        <v>6.301455974578857</v>
       </c>
       <c r="P18">
-        <v>2.945865869522095</v>
+        <v>2.955799579620361</v>
       </c>
       <c r="Q18">
-        <v>14.39325714111328</v>
+        <v>14.51939392089844</v>
       </c>
       <c r="R18">
-        <v>1.284087419509888</v>
+        <v>1.330791711807251</v>
       </c>
       <c r="S18">
-        <v>16.48038101196289</v>
+        <v>15.57069683074951</v>
       </c>
       <c r="T18">
-        <v>6.620954513549805</v>
+        <v>7.018850326538086</v>
       </c>
       <c r="U18">
-        <v>14.20997619628906</v>
+        <v>14.11433696746826</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1544,64 +1544,64 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.71085166931152</v>
+        <v>15.32924938201904</v>
       </c>
       <c r="C19">
-        <v>13.60227203369141</v>
+        <v>13.51841735839844</v>
       </c>
       <c r="D19">
-        <v>15.58690357208252</v>
+        <v>15.8004322052002</v>
       </c>
       <c r="E19">
-        <v>15.89925289154053</v>
+        <v>15.5247859954834</v>
       </c>
       <c r="F19">
-        <v>12.65432739257812</v>
+        <v>12.69977760314941</v>
       </c>
       <c r="G19">
-        <v>14.26512813568115</v>
+        <v>14.42310619354248</v>
       </c>
       <c r="H19">
-        <v>13.12762451171875</v>
+        <v>13.2393045425415</v>
       </c>
       <c r="I19">
-        <v>16.57666015625</v>
+        <v>16.80725288391113</v>
       </c>
       <c r="J19">
-        <v>15.17643737792969</v>
+        <v>15.66275310516357</v>
       </c>
       <c r="K19">
-        <v>13.58173179626465</v>
+        <v>13.83015537261963</v>
       </c>
       <c r="L19">
-        <v>18.38267707824707</v>
+        <v>18.34405899047852</v>
       </c>
       <c r="M19">
-        <v>17.01638221740723</v>
+        <v>17.65031242370605</v>
       </c>
       <c r="N19">
-        <v>16.48191833496094</v>
+        <v>16.64912986755371</v>
       </c>
       <c r="O19">
-        <v>15.89514255523682</v>
+        <v>16.03967094421387</v>
       </c>
       <c r="P19">
-        <v>16.82894134521484</v>
+        <v>17.29674911499023</v>
       </c>
       <c r="Q19">
-        <v>4.868184089660645</v>
+        <v>4.663455009460449</v>
       </c>
       <c r="R19">
-        <v>15.7435827255249</v>
+        <v>16.02953910827637</v>
       </c>
       <c r="S19">
-        <v>0.9111793041229248</v>
+        <v>1.02890682220459</v>
       </c>
       <c r="T19">
-        <v>13.1555643081665</v>
+        <v>14.04425716400146</v>
       </c>
       <c r="U19">
-        <v>10.04728126525879</v>
+        <v>9.781627655029297</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1609,64 +1609,64 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.53762435913086</v>
+        <v>20.97771644592285</v>
       </c>
       <c r="C20">
-        <v>24.18454360961914</v>
+        <v>24.97382926940918</v>
       </c>
       <c r="D20">
-        <v>21.70075035095215</v>
+        <v>22.88028907775879</v>
       </c>
       <c r="E20">
-        <v>20.66684722900391</v>
+        <v>21.21016693115234</v>
       </c>
       <c r="F20">
-        <v>21.25514221191406</v>
+        <v>22.04534530639648</v>
       </c>
       <c r="G20">
-        <v>20.45385551452637</v>
+        <v>21.31437110900879</v>
       </c>
       <c r="H20">
-        <v>21.76492500305176</v>
+        <v>23.22662544250488</v>
       </c>
       <c r="I20">
-        <v>23.40136337280273</v>
+        <v>24.22048187255859</v>
       </c>
       <c r="J20">
-        <v>20.27975463867188</v>
+        <v>20.86600685119629</v>
       </c>
       <c r="K20">
-        <v>21.50362586975098</v>
+        <v>22.32657623291016</v>
       </c>
       <c r="L20">
-        <v>8.823417663574219</v>
+        <v>9.595335960388184</v>
       </c>
       <c r="M20">
-        <v>14.8493070602417</v>
+        <v>16.31683731079102</v>
       </c>
       <c r="N20">
-        <v>6.526676177978516</v>
+        <v>6.876741409301758</v>
       </c>
       <c r="O20">
-        <v>11.20796203613281</v>
+        <v>12.17792224884033</v>
       </c>
       <c r="P20">
-        <v>6.721814632415771</v>
+        <v>7.139391899108887</v>
       </c>
       <c r="Q20">
-        <v>12.25544357299805</v>
+        <v>13.9057445526123</v>
       </c>
       <c r="R20">
-        <v>6.446812629699707</v>
+        <v>7.182403564453125</v>
       </c>
       <c r="S20">
-        <v>13.62218475341797</v>
+        <v>14.17240333557129</v>
       </c>
       <c r="T20">
-        <v>1.882740259170532</v>
+        <v>1.918214917182922</v>
       </c>
       <c r="U20">
-        <v>11.01956272125244</v>
+        <v>11.82710266113281</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1674,64 +1674,64 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.75577354431152</v>
+        <v>18.97054100036621</v>
       </c>
       <c r="C21">
-        <v>18.80008506774902</v>
+        <v>19.54238510131836</v>
       </c>
       <c r="D21">
-        <v>17.9586124420166</v>
+        <v>18.9172191619873</v>
       </c>
       <c r="E21">
-        <v>18.93840789794922</v>
+        <v>19.01216888427734</v>
       </c>
       <c r="F21">
-        <v>19.70112228393555</v>
+        <v>19.96657943725586</v>
       </c>
       <c r="G21">
-        <v>17.40059471130371</v>
+        <v>18.06869697570801</v>
       </c>
       <c r="H21">
-        <v>18.79179000854492</v>
+        <v>19.69938468933105</v>
       </c>
       <c r="I21">
-        <v>22.34435272216797</v>
+        <v>22.91963958740234</v>
       </c>
       <c r="J21">
-        <v>17.54210090637207</v>
+        <v>17.93094635009766</v>
       </c>
       <c r="K21">
-        <v>20.2742748260498</v>
+        <v>21.25542259216309</v>
       </c>
       <c r="L21">
-        <v>15.92965888977051</v>
+        <v>15.7681941986084</v>
       </c>
       <c r="M21">
-        <v>19.79911231994629</v>
+        <v>20.38266372680664</v>
       </c>
       <c r="N21">
-        <v>13.9726390838623</v>
+        <v>14.08865356445312</v>
       </c>
       <c r="O21">
-        <v>16.42937850952148</v>
+        <v>16.66891288757324</v>
       </c>
       <c r="P21">
-        <v>14.35485935211182</v>
+        <v>14.5410623550415</v>
       </c>
       <c r="Q21">
-        <v>7.621743202209473</v>
+        <v>8.595973014831543</v>
       </c>
       <c r="R21">
-        <v>13.87042808532715</v>
+        <v>14.07041168212891</v>
       </c>
       <c r="S21">
-        <v>9.719215393066406</v>
+        <v>10.59773445129395</v>
       </c>
       <c r="T21">
-        <v>10.88981628417969</v>
+        <v>11.68490314483643</v>
       </c>
       <c r="U21">
-        <v>1.492494583129883</v>
+        <v>1.48507022857666</v>
       </c>
     </row>
   </sheetData>
